--- a/variants.xlsx
+++ b/variants.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Concept</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>let the clock thread execute the waiting stage</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>check pipeline and stage via instanceOf</t>
+  </si>
+  <si>
+    <t>check pipeline and state via same super type</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,6 +621,33 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
